--- a/docs/05-02-18/Trazabilidad.xlsx
+++ b/docs/05-02-18/Trazabilidad.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="360" uniqueCount="126">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="365" uniqueCount="129">
   <si>
     <t>tabla</t>
   </si>
@@ -411,6 +411,15 @@
   </si>
   <si>
     <t>activitytitle no nulo, activitydescription no nulo</t>
+  </si>
+  <si>
+    <t>CRUD TABLE tbevent</t>
+  </si>
+  <si>
+    <t>Catalogo Nuevo Evento</t>
+  </si>
+  <si>
+    <t>eventid no repetido, eventplace no nulo, eventhour no nulo, eventdate no nulo</t>
   </si>
 </sst>
 </file>
@@ -1105,19 +1114,19 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1139,22 +1148,33 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="str">
-        <f>CONCATENATE(+table!I3,,",",table!I4,,",",table!I5,,",",table!I6,,",",table!I7,,",",table!I8,,",",table!I9)</f>
-        <v>activityid,createddate,updatedate,likecount,commentcount,activitytitle,activitydescription</v>
+        <f>CONCATENATE(+table!I13,,",",table!I14,,",",table!I15,,",",table!I16)</f>
+        <v>activityid,eventplace,eventdate,eventhour</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE(+table!I4,,",",table!I5,,",",table!I6,,",",table!I7,,",",table!I8,,",",table!I9,,",",table!I10)</f>
+        <v>createddate,updatedate,likecount,commentcount,activitytitle,activitydescription,activitystate</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -1185,21 +1205,31 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="str">
-        <f>CONCATENATE(+table!I5,,",",table!I8,,",",table!I9)</f>
-        <v>updatedate,activitytitle,activitydescription</v>
-      </c>
-      <c r="E16" s="5" t="s">
+        <f>CONCATENATE(+table!I14,,",",table!I15,,",",table!I16)</f>
+        <v>eventplace,eventdate,eventhour</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE(+table!I6,,",",table!I9,,",",table!I10)</f>
+        <v>likecount,activitydescription,activitystate</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
@@ -1228,14 +1258,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="6" t="str">
-        <f>+table!I10</f>
-        <v>activitystate</v>
+        <f>+table!I17</f>
+        <v>eventstate</v>
       </c>
       <c r="D24" s="5">
         <v>0</v>
@@ -2119,7 +2149,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E24"/>
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
